--- a/Calibration/Calibración Final.xlsx
+++ b/Calibration/Calibración Final.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2024 - II Semestre\eWave\eWave\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4C2AC-FC1A-4BE7-9EB5-1489725C5EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F5405-DA64-444A-A6E4-932F0D4EEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="5" r:id="rId1"/>
     <sheet name="Calibration_Bond" sheetId="8" r:id="rId2"/>
+    <sheet name="Wave peak-peak" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Intercepto</t>
   </si>
@@ -65,6 +66,39 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Var ~0.2</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -115,11 +149,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +186,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5221,9 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54C66C-0515-4BEF-90E7-4F49CBCFD5C5}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5469,7 +5528,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>716</v>
@@ -5484,7 +5543,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>736</v>
@@ -5499,7 +5558,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
@@ -5507,7 +5566,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
@@ -5515,7 +5574,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
@@ -5523,7 +5582,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
@@ -5531,122 +5590,58 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>15</v>
-      </c>
-      <c r="I23">
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>8.5</v>
-      </c>
-      <c r="H24">
-        <v>8.6</v>
-      </c>
-      <c r="I24">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I25">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>8.1</v>
-      </c>
-      <c r="H26">
-        <v>8.1</v>
-      </c>
-      <c r="I26">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>7.4</v>
-      </c>
-      <c r="H27">
-        <v>7.5</v>
-      </c>
-      <c r="I27">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -6318,4 +6313,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568ED88-4CF4-44E8-A70C-B994A9054EB5}">
+  <dimension ref="B2:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calibration/Calibración Final.xlsx
+++ b/Calibration/Calibración Final.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2024 - II Semestre\eWave\eWave\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F5405-DA64-444A-A6E4-932F0D4EEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177E11D-5637-45EC-82E4-31F13F6EC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calibration_NoBond" sheetId="5" r:id="rId1"/>
-    <sheet name="Calibration_Bond" sheetId="8" r:id="rId2"/>
+    <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
+    <sheet name="Calibration_Bond" sheetId="10" r:id="rId2"/>
     <sheet name="Wave peak-peak" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Intercepto</t>
   </si>
@@ -67,37 +67,22 @@
     <t>D</t>
   </si>
   <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
     <t>Time (min)</t>
   </si>
   <si>
-    <t>7.2</t>
+    <t>8,6 - 8,9</t>
   </si>
   <si>
-    <t>8.7</t>
+    <t>6,9 - 7,2</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>Var ~0,2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>Var ~0.2</t>
-  </si>
-  <si>
-    <t>8.4</t>
+    <t>Bomba ON whoops</t>
   </si>
 </sst>
 </file>
@@ -162,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,22 +171,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,8 +336,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.5971347331583552E-2"/>
-                  <c:y val="-0.1767202537182852"/>
+                  <c:x val="0.19698534730402795"/>
+                  <c:y val="-0.17171296296296296"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -389,52 +377,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>436</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>476</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>516</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>536</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>556</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>596</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>616</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>636</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>736</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,52 +425,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>438.07</c:v>
+                  <c:v>429.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>458.2</c:v>
+                  <c:v>449.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>478.75</c:v>
+                  <c:v>470.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499.44</c:v>
+                  <c:v>490.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>518.45000000000005</c:v>
+                  <c:v>510.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537.24</c:v>
+                  <c:v>530.33000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>557.49</c:v>
+                  <c:v>550.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>580.21</c:v>
+                  <c:v>569.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>594.79999999999995</c:v>
+                  <c:v>590.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>614.88</c:v>
+                  <c:v>610.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>635.48</c:v>
+                  <c:v>630.96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>655.64</c:v>
+                  <c:v>651.05999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>675.97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>696.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>716.58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>745.23</c:v>
+                  <c:v>670.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,7 +469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8C1-43E3-9C85-0DB9103DCE03}"/>
+              <c16:uniqueId val="{00000001-BD12-4FBF-987D-67C3995795F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -518,8 +488,8 @@
         <c:axId val="1247600800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="756"/>
-          <c:min val="416"/>
+          <c:max val="755"/>
+          <c:min val="415"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -944,8 +914,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10069173802769603"/>
-                  <c:y val="-0.64679024496937887"/>
+                  <c:x val="0.21902754579919934"/>
+                  <c:y val="-0.65141987459900841"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -985,52 +955,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>436</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>476</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>516</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>536</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>556</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>596</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>616</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>636</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>736</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,52 +1003,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>436.2372639047469</c:v>
+                  <c:v>429.92464921969844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456.3909296431176</c:v>
+                  <c:v>449.56987718588357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>476.96508915248268</c:v>
+                  <c:v>470.19040015748215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>497.67941325217913</c:v>
+                  <c:v>490.41284353503443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>516.71176226789839</c:v>
+                  <c:v>510.31682323734964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535.5238526416681</c:v>
+                  <c:v>530.13123503100439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.79765945746578</c:v>
+                  <c:v>549.97550279421262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>578.54437011696825</c:v>
+                  <c:v>569.53116285173724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>593.15152278079472</c:v>
+                  <c:v>589.71379826988493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>613.25512973690422</c:v>
+                  <c:v>609.78696179966983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>633.87934802853056</c:v>
+                  <c:v>630.27810890320336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>654.06304903625801</c:v>
+                  <c:v>650.28160850403003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>674.41694990367364</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>694.55059212913989</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>715.0746928562437</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>743.75837509192775</c:v>
+                  <c:v>669.88702851081052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E41D-43A4-917A-A4A92E4877D9}"/>
+              <c16:uniqueId val="{00000002-72CF-4BDB-9F88-1DEE40A7DA4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,8 +1066,8 @@
         <c:axId val="1247600800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="756"/>
-          <c:min val="416"/>
+          <c:max val="755"/>
+          <c:min val="415"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1526,8 +1478,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.5971347331583552E-2"/>
-                  <c:y val="-0.1767202537182852"/>
+                  <c:x val="0.19698534730402795"/>
+                  <c:y val="-0.17171296296296296"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1567,52 +1519,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>435</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>515</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>575</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>595</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>635</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>655</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>735</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,52 +1567,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>440.73</c:v>
+                  <c:v>428.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>460.28</c:v>
+                  <c:v>448.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>481.4</c:v>
+                  <c:v>468.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>505.13</c:v>
+                  <c:v>488.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>524.19000000000005</c:v>
+                  <c:v>508.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>543.1</c:v>
+                  <c:v>528.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>564.24</c:v>
+                  <c:v>548.67999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>584.70000000000005</c:v>
+                  <c:v>568.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>606.4</c:v>
+                  <c:v>588.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>626.87</c:v>
+                  <c:v>607.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>645.51</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>665.46</c:v>
+                  <c:v>647.15</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>688.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>705.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>727.55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>746.49</c:v>
+                  <c:v>667.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1611,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD12-4FBF-987D-67C3995795F2}"/>
+              <c16:uniqueId val="{00000001-F17B-4621-AF9F-9508906A9882}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2122,8 +2056,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10069173802769603"/>
-                  <c:y val="-0.64679024496937887"/>
+                  <c:x val="0.21902754579919934"/>
+                  <c:y val="-0.65141987459900841"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2163,52 +2097,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>435</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>515</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>535</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>575</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>595</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>635</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>655</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>735</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,52 +2145,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>434.12039138548454</c:v>
+                  <c:v>429.91026186516086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>453.27752919899996</c:v>
+                  <c:v>449.75244652458144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>473.97311746608165</c:v>
+                  <c:v>469.85610954241298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>497.22625712412372</c:v>
+                  <c:v>489.76869222140579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>515.90324161136698</c:v>
+                  <c:v>510.42548253587609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>534.43324038648609</c:v>
+                  <c:v>530.1972691757245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.14842674851764</c:v>
+                  <c:v>550.53223997215036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>575.19727788225305</c:v>
+                  <c:v>570.06266197346554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>596.46121090288136</c:v>
+                  <c:v>590.16632499129719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>616.51986108409176</c:v>
+                  <c:v>610.06885081035102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>634.7852855773873</c:v>
+                  <c:v>629.29756701349959</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>654.33438528990064</c:v>
+                  <c:v>649.56213979035329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>676.5586249630735</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>693.14841233815366</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>715.17667106182762</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>733.73606697937157</c:v>
+                  <c:v>670.39995358372357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72CF-4BDB-9F88-1DEE40A7DA4D}"/>
+              <c16:uniqueId val="{00000002-C8AC-49D9-81C5-EFF8CDA2EBA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4818,10 +4734,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Gráfico 1">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8679F7B6-83FA-4FDC-8FBB-06496066878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F66D1C-297D-4AC2-A0BC-672C45FA7A07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4856,10 +4772,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 2">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E9C89B-0199-4D32-B362-32C652CC88AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E27D52-8C41-4FB5-9962-1BF4E6154B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4902,7 +4818,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F66D1C-297D-4AC2-A0BC-672C45FA7A07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF39F8A-DD92-4EAA-98B0-F83E2E6C0372}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4940,7 +4856,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E27D52-8C41-4FB5-9962-1BF4E6154B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BA0558-BD64-40AA-879F-EFC262BFA6F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5279,7 +5195,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54C66C-0515-4BEF-90E7-4F49CBCFD5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A7D7B-E854-4DCE-A9EA-2115A357C041}">
+  <dimension ref="A2:K76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
+        <v>-2.3586813186814197</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>430</v>
+      </c>
+      <c r="C3" s="4">
+        <v>429.64</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(C3-$G$2)/$G$3</f>
+        <v>429.92464921969844</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
+        <v>1.0048241758241758</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>450</v>
+      </c>
+      <c r="C4" s="4">
+        <v>449.38</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
+        <v>449.56987718588357</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>470</v>
+      </c>
+      <c r="C5" s="4">
+        <v>470.1</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>470.19040015748215</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>490</v>
+      </c>
+      <c r="C6" s="4">
+        <v>490.42</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>490.41284353503443</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>510</v>
+      </c>
+      <c r="C7" s="4">
+        <v>510.42</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>510.31682323734964</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>530</v>
+      </c>
+      <c r="C8" s="4">
+        <v>530.33000000000004</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>530.13123503100439</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>550</v>
+      </c>
+      <c r="C9" s="4">
+        <v>550.27</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>549.97550279421262</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>570</v>
+      </c>
+      <c r="C10" s="4">
+        <v>569.91999999999996</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>569.53116285173724</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>590</v>
+      </c>
+      <c r="C11" s="4">
+        <v>590.20000000000005</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>589.71379826988493</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>610</v>
+      </c>
+      <c r="C12" s="4">
+        <v>610.37</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>609.78696179966983</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>630</v>
+      </c>
+      <c r="C13" s="4">
+        <v>630.96</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>630.27810890320336</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>650</v>
+      </c>
+      <c r="C14" s="4">
+        <v>651.05999999999995</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>650.28160850403003</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2">
+        <v>670</v>
+      </c>
+      <c r="C15" s="2">
+        <v>670.76</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>669.88702851081052</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449DDF70-ED67-4D2E-86DD-CDB8400C408B}">
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5311,8 +5727,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
-        <v>2.3449941176471611</v>
+        <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
+        <v>1.2603846153845097</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5320,22 +5736,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C3" s="4">
-        <v>438.07</v>
+        <v>428.74</v>
       </c>
       <c r="D3" s="4">
         <f>(C3-$G$2)/$G$3</f>
-        <v>436.2372639047469</v>
+        <v>429.91026186516086</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
-        <v>0.99882573529411756</v>
+        <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
+        <v>0.99434615384615377</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -5343,14 +5759,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C4" s="4">
-        <v>458.2</v>
+        <v>448.47</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
-        <v>456.3909296431176</v>
+        <v>449.75244652458144</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -5360,14 +5776,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C5" s="4">
-        <v>478.75</v>
+        <v>468.46</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>476.96508915248268</v>
+        <v>469.85610954241298</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
@@ -5377,14 +5793,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C6" s="4">
-        <v>499.44</v>
+        <v>488.26</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>497.67941325217913</v>
+        <v>489.76869222140579</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -5394,683 +5810,146 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C7" s="4">
-        <v>518.45000000000005</v>
+        <v>508.8</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>516.71176226789839</v>
+        <v>510.42548253587609</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C8" s="4">
-        <v>537.24</v>
+        <v>528.46</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>535.5238526416681</v>
+        <v>530.1972691757245</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C9" s="4">
-        <v>557.49</v>
+        <v>548.67999999999995</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>555.79765945746578</v>
+        <v>550.53223997215036</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C10" s="4">
-        <v>580.21</v>
+        <v>568.1</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>578.54437011696825</v>
+        <v>570.06266197346554</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C11" s="4">
-        <v>594.79999999999995</v>
+        <v>588.09</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>593.15152278079472</v>
+        <v>590.16632499129719</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C12" s="4">
-        <v>614.88</v>
+        <v>607.88</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>613.25512973690422</v>
+        <v>610.06885081035102</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C13" s="4">
-        <v>635.48</v>
+        <v>627</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>633.87934802853056</v>
+        <v>629.29756701349959</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C14" s="4">
-        <v>655.64</v>
+        <v>647.15</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>654.06304903625801</v>
+        <v>649.56213979035329</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="1">
-        <v>676</v>
-      </c>
-      <c r="C15" s="1">
-        <v>675.97</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="2">
+        <v>670</v>
+      </c>
+      <c r="C15" s="2">
+        <v>667.87</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>674.41694990367364</v>
+        <v>670.39995358372357</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="1">
-        <v>696</v>
-      </c>
-      <c r="C16" s="4">
-        <v>696.08</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>694.55059212913989</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="1">
-        <v>716</v>
-      </c>
-      <c r="C17" s="4">
-        <v>716.58</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>715.0746928562437</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="2">
-        <v>736</v>
-      </c>
-      <c r="C18" s="5">
-        <v>745.23</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>743.75837509192775</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F76" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A7D7B-E854-4DCE-A9EA-2115A357C041}">
-  <dimension ref="A2:K76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
-        <v>-2.2930514705883525</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>435</v>
-      </c>
-      <c r="C3" s="4">
-        <v>440.73</v>
-      </c>
-      <c r="D3" s="4">
-        <f>(C3-$G$2)/$G$3</f>
-        <v>434.12039138548454</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
-        <v>1.0205073529411766</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>455</v>
-      </c>
-      <c r="C4" s="4">
-        <v>460.28</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
-        <v>453.27752919899996</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>475</v>
-      </c>
-      <c r="C5" s="4">
-        <v>481.4</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>473.97311746608165</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>495</v>
-      </c>
-      <c r="C6" s="4">
-        <v>505.13</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>497.22625712412372</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>515</v>
-      </c>
-      <c r="C7" s="4">
-        <v>524.19000000000005</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>515.90324161136698</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>535</v>
-      </c>
-      <c r="C8" s="4">
-        <v>543.1</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>534.43324038648609</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>555</v>
-      </c>
-      <c r="C9" s="4">
-        <v>564.24</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>555.14842674851764</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>575</v>
-      </c>
-      <c r="C10" s="4">
-        <v>584.70000000000005</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>575.19727788225305</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>595</v>
-      </c>
-      <c r="C11" s="4">
-        <v>606.4</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>596.46121090288136</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>615</v>
-      </c>
-      <c r="C12" s="4">
-        <v>626.87</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>616.51986108409176</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>635</v>
-      </c>
-      <c r="C13" s="4">
-        <v>645.51</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>634.7852855773873</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>655</v>
-      </c>
-      <c r="C14" s="4">
-        <v>665.46</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>654.33438528990064</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1">
-        <v>675</v>
-      </c>
-      <c r="C15" s="1">
-        <v>688.14</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>676.5586249630735</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1">
-        <v>695</v>
-      </c>
-      <c r="C16" s="4">
-        <v>705.07</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>693.14841233815366</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1">
-        <v>715</v>
-      </c>
-      <c r="C17" s="4">
-        <v>727.55</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>715.17667106182762</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2">
-        <v>735</v>
-      </c>
-      <c r="C18" s="5">
-        <v>746.49</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>733.73606697937157</v>
-      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -6317,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568ED88-4CF4-44E8-A70C-B994A9054EB5}">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6328,23 +6207,23 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
       <c r="C3" s="3">
         <v>0</v>
       </c>
@@ -6360,15 +6239,17 @@
       <c r="G3" s="3">
         <v>60</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="3">
         <v>75</v>
       </c>
       <c r="I3" s="3">
         <v>90</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -6382,20 +6263,23 @@
         <v>8.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -6408,19 +6292,24 @@
       <c r="E5" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -6433,19 +6322,24 @@
       <c r="E6" s="1">
         <v>8.1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6458,22 +6352,29 @@
       <c r="E7" s="2">
         <v>7.6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
+      <c r="I9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Calibration/Calibración Final.xlsx
+++ b/Calibration/Calibración Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2024 - II Semestre\eWave\eWave\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177E11D-5637-45EC-82E4-31F13F6EC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F76C8-7C77-4AC5-9A75-7EEAFF26BAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Intercepto</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
     <t>8,6 - 8,9</t>
   </si>
   <si>
@@ -82,7 +79,13 @@
     <t>Var ~0,2</t>
   </si>
   <si>
-    <t>Bomba ON whoops</t>
+    <t>Measurement (very far apart)</t>
+  </si>
+  <si>
+    <t>Bomba ON</t>
+  </si>
+  <si>
+    <t>Whoops</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,15 +182,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5198,7 +5192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A7D7B-E854-4DCE-A9EA-2115A357C041}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5265,7 +5259,7 @@
         <v>449.38</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
+        <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
         <v>449.56987718588357</v>
       </c>
       <c r="E4" s="4"/>
@@ -5447,9 +5441,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -5765,7 +5759,7 @@
         <v>448.47</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
+        <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
         <v>449.75244652458144</v>
       </c>
       <c r="E4" s="4"/>
@@ -5947,9 +5941,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -6196,11 +6190,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568ED88-4CF4-44E8-A70C-B994A9054EB5}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6211,42 +6203,46 @@
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -6263,7 +6259,7 @@
         <v>8.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>8.6999999999999993</v>
@@ -6277,7 +6273,9 @@
       <c r="J4" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="1">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -6302,12 +6300,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
         <v>8.4</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="1">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -6337,7 +6337,9 @@
       <c r="J6" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="1">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -6367,20 +6369,28 @@
       <c r="J7" s="2">
         <v>7.5</v>
       </c>
+      <c r="K7" s="2">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="F9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calibration/Calibración Final.xlsx
+++ b/Calibration/Calibración Final.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2024 - II Semestre\eWave\eWave\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F76C8-7C77-4AC5-9A75-7EEAFF26BAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F527E7-7311-4D30-8D40-32012917751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
     <sheet name="Calibration_Bond" sheetId="10" r:id="rId2"/>
     <sheet name="Wave peak-peak" sheetId="9" r:id="rId3"/>
+    <sheet name="Bond in water" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Intercepto</t>
   </si>
@@ -330,7 +331,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19698534730402795"/>
+                  <c:x val="0.77165354330708646"/>
                   <c:y val="-0.17171296296296296"/>
                 </c:manualLayout>
               </c:layout>
@@ -371,43 +372,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>430</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>550</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>610</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>630</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>650</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>670</c:v>
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,43 +423,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>429.64</c:v>
+                  <c:v>179.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.38</c:v>
+                  <c:v>199.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470.1</c:v>
+                  <c:v>218.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490.42</c:v>
+                  <c:v>238.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.42</c:v>
+                  <c:v>258.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530.33000000000004</c:v>
+                  <c:v>279.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>550.27</c:v>
+                  <c:v>298.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>569.91999999999996</c:v>
+                  <c:v>318.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590.20000000000005</c:v>
+                  <c:v>338.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>610.37</c:v>
+                  <c:v>358.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>630.96</c:v>
+                  <c:v>378.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>651.05999999999995</c:v>
+                  <c:v>398.44</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>670.76</c:v>
+                  <c:v>418.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,6 +468,2209 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BD12-4FBF-987D-67C3995795F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida real (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prueba post-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calibration_NoBond!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.73232323232323238"/>
+                  <c:y val="-0.65141987459900841"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration_NoBond!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration_NoBond!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>180.5326651154466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.4488992303562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.6334347592626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.31913370323969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.48594952568465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280.40451047073566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.30069804904247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>319.82602470019685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>339.802398424915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359.93914444245576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>379.86540182566677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400.05226418471455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420.38947556828356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72CF-4BDB-9F88-1DEE40A7DA4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Reales (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Calibrado (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calibration_Bond!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.76115485564304464"/>
+                  <c:y val="-0.64679024496937887"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration_Bond!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration_Bond!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>137.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>334.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>356.25</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>375.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F17B-4621-AF9F-9508906A9882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida real (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prueba post-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calibration_Bond!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.73232323232323238"/>
+                  <c:y val="-0.65604950422863806"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration_Bond!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration_Bond!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>139.67070346692077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.22118932334661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.80011744761947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.90696154144462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220.7764838841922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.68814333041561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.43200780029468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281.09159806322225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.99498077626231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>318.9221410922629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.68436506265721</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360.16065947946328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>379.65064873189812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8AC-49D9-81C5-EFF8CDA2EBA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Reales (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Calibrado (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bond in water'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19698534730402795"/>
+                  <c:y val="-0.17171296296296296"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bond in water'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bond in water'!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>450.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA1D-4D4C-BF82-82C5586B458E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -767,7 +2974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -847,7 +3054,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calibration_NoBond!$D$2</c:f>
+              <c:f>'Bond in water'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,96 +3151,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calibration_NoBond!$B$3:$B$18</c:f>
+              <c:f>'Bond in water'!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>670</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calibration_NoBond!$D$3:$D$18</c:f>
+              <c:f>'Bond in water'!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>429.92464921969844</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.56987718588357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470.19040015748215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490.41284353503443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.31682323734964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530.13123503100439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>549.97550279421262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>569.53116285173724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>589.71379826988493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>609.78696179966983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>630.27810890320336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>650.28160850403003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>669.88702851081052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,1149 +3212,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72CF-4BDB-9F88-1DEE40A7DA4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1247600800"/>
-        <c:axId val="1247596480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1247600800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="755"/>
-          <c:min val="415"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CR"/>
-                  <a:t>Reales (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1247596480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1247596480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="400"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CR"/>
-                  <a:t>Calibrado (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1247600800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CR"/>
-              <a:t>Prueba pre-calibración</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calibration_Bond!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Medida Sensor (mm)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19698534730402795"/>
-                  <c:y val="-0.17171296296296296"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Calibration_Bond!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>670</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Calibration_Bond!$C$3:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>428.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>448.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>468.46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>488.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>508.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>528.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>548.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>568.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>588.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>607.88</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>647.15</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>667.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F17B-4621-AF9F-9508906A9882}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1247600800"/>
-        <c:axId val="1247596480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1247600800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="755"/>
-          <c:min val="415"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CR"/>
-                  <a:t>Medida real (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1247596480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1247596480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="400"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CR"/>
-                  <a:t>Medida del sensor (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1247600800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Prueba post-calibración</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calibration_Bond!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calibración (mm)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.21902754579919934"/>
-                  <c:y val="-0.65141987459900841"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Calibration_Bond!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>670</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Calibration_Bond!$D$3:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>429.91026186516086</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>449.75244652458144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>469.85610954241298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>489.76869222140579</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510.42548253587609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>530.1972691757245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550.53223997215036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570.06266197346554</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>590.16632499129719</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>610.06885081035102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>629.29756701349959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>649.56213979035329</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>670.39995358372357</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8AC-49D9-81C5-EFF8CDA2EBA2}"/>
+              <c16:uniqueId val="{00000002-61E0-46C1-8554-51EFDBAEBAC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,6 +3676,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4196,6 +5305,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4851,6 +6992,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BA0558-BD64-40AA-879F-EFC262BFA6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB725D28-9B4F-4A5D-8270-47190043B3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CA26B6-14D4-4551-B49B-23922F555F96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A7D7B-E854-4DCE-A9EA-2115A357C041}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5222,7 +7444,7 @@
       </c>
       <c r="G2" s="1">
         <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
-        <v>-2.3586813186814197</v>
+        <v>-0.68357142857144026</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5230,14 +7452,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4">
-        <v>429.64</v>
+        <v>179.43</v>
       </c>
       <c r="D3" s="4">
         <f>(C3-$G$2)/$G$3</f>
-        <v>429.92464921969844</v>
+        <v>180.5326651154466</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
@@ -5245,7 +7467,7 @@
       </c>
       <c r="G3" s="1">
         <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
-        <v>1.0048241758241758</v>
+        <v>0.99767857142857141</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -5253,14 +7475,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4">
-        <v>449.38</v>
+        <v>199.3</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
-        <v>449.56987718588357</v>
+        <v>200.4488992303562</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -5270,14 +7492,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="C5" s="4">
-        <v>470.1</v>
+        <v>218.44</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>470.19040015748215</v>
+        <v>219.6334347592626</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
@@ -5287,14 +7509,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="C6" s="4">
-        <v>490.42</v>
+        <v>238.08</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>490.41284353503443</v>
+        <v>239.31913370323969</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -5304,106 +7526,106 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="C7" s="4">
-        <v>510.42</v>
+        <v>258.2</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>510.31682323734964</v>
+        <v>259.48594952568465</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4">
-        <v>530.33000000000004</v>
+        <v>279.07</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>530.13123503100439</v>
+        <v>280.40451047073566</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="C9" s="4">
-        <v>550.27</v>
+        <v>298.92</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>549.97550279421262</v>
+        <v>300.30069804904247</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="C10" s="4">
-        <v>569.91999999999996</v>
+        <v>318.39999999999998</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>569.53116285173724</v>
+        <v>319.82602470019685</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="C11" s="4">
-        <v>590.20000000000005</v>
+        <v>338.33</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>589.71379826988493</v>
+        <v>339.802398424915</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>610</v>
+        <v>360</v>
       </c>
       <c r="C12" s="4">
-        <v>610.37</v>
+        <v>358.42</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>609.78696179966983</v>
+        <v>359.93914444245576</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>630</v>
+        <v>380</v>
       </c>
       <c r="C13" s="4">
-        <v>630.96</v>
+        <v>378.3</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>630.27810890320336</v>
+        <v>379.86540182566677</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="C14" s="4">
-        <v>651.05999999999995</v>
+        <v>398.44</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>650.28160850403003</v>
+        <v>400.05226418471455</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5411,14 +7633,14 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="C15" s="2">
-        <v>670.76</v>
+        <v>418.73</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>669.88702851081052</v>
+        <v>420.38947556828356</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5441,7 +7663,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>30</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5722,7 +7946,7 @@
       </c>
       <c r="G2" s="1">
         <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
-        <v>1.2603846153845097</v>
+        <v>-0.95417582417582025</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5730,14 +7954,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4">
-        <v>428.74</v>
+        <v>137.57</v>
       </c>
       <c r="D3" s="4">
         <f>(C3-$G$2)/$G$3</f>
-        <v>429.91026186516086</v>
+        <v>139.67070346692077</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
@@ -5745,7 +7969,7 @@
       </c>
       <c r="G3" s="1">
         <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
-        <v>0.99434615384615377</v>
+        <v>0.99179120879120874</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -5753,14 +7977,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4">
-        <v>448.47</v>
+        <v>156.96</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
-        <v>449.75244652458144</v>
+        <v>159.22118932334661</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -5770,14 +7994,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="C5" s="4">
-        <v>468.46</v>
+        <v>177.37</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>469.85610954241298</v>
+        <v>179.80011744761947</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
@@ -5787,14 +8011,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4">
-        <v>488.26</v>
+        <v>196.32</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>489.76869222140579</v>
+        <v>198.90696154144462</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -5804,106 +8028,106 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="C7" s="4">
-        <v>508.8</v>
+        <v>218.01</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>510.42548253587609</v>
+        <v>220.7764838841922</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4">
-        <v>528.46</v>
+        <v>238.75</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>530.1972691757245</v>
+        <v>241.68814333041561</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4">
-        <v>548.67999999999995</v>
+        <v>257.33999999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>550.53223997215036</v>
+        <v>260.43200780029468</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="C10" s="4">
-        <v>568.1</v>
+        <v>277.83</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>570.06266197346554</v>
+        <v>281.09159806322225</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="C11" s="4">
-        <v>588.09</v>
+        <v>297.57</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>590.16632499129719</v>
+        <v>300.99498077626231</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>610</v>
+        <v>320</v>
       </c>
       <c r="C12" s="4">
-        <v>607.88</v>
+        <v>315.35000000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>610.06885081035102</v>
+        <v>318.9221410922629</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>630</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4">
-        <v>627</v>
+        <v>334.95</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>629.29756701349959</v>
+        <v>338.68436506265721</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>650</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4">
-        <v>647.15</v>
+        <v>356.25</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>649.56213979035329</v>
+        <v>360.16065947946328</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5911,14 +8135,14 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
-        <v>670</v>
+        <v>380</v>
       </c>
       <c r="C15" s="2">
-        <v>667.87</v>
+        <v>375.58</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>670.39995358372357</v>
+        <v>379.65064873189812</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5941,7 +8165,9 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>26</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -6192,7 +8418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568ED88-4CF4-44E8-A70C-B994A9054EB5}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6394,4 +8620,456 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06627479-3B87-427A-9AB7-FB32C4DF2C81}">
+  <dimension ref="A2:K76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="e">
+        <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>448</v>
+      </c>
+      <c r="C3" s="4">
+        <v>450.96</v>
+      </c>
+      <c r="D3" s="4" t="e">
+        <f>(C3-$G$2)/$G$3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="e">
+        <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="e">
+        <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Calibration/Calibración Final.xlsx
+++ b/Calibration/Calibración Final.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2024 - II Semestre\eWave\eWave\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F527E7-7311-4D30-8D40-32012917751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A2444-FA77-4B50-B710-0EA332B4AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
-    <sheet name="Calibration_Bond" sheetId="10" r:id="rId2"/>
+    <sheet name="Calibration_Bond" sheetId="12" r:id="rId2"/>
     <sheet name="Wave peak-peak" sheetId="9" r:id="rId3"/>
     <sheet name="Bond in water" sheetId="11" r:id="rId4"/>
   </sheets>
@@ -372,46 +372,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>340</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>380</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>420</c:v>
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,43 +429,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>179.43</c:v>
+                  <c:v>198.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199.3</c:v>
+                  <c:v>217.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.44</c:v>
+                  <c:v>237.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238.08</c:v>
+                  <c:v>257.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258.2</c:v>
+                  <c:v>277.47000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>279.07</c:v>
+                  <c:v>297.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.92</c:v>
+                  <c:v>317.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.39999999999998</c:v>
+                  <c:v>337.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>338.33</c:v>
+                  <c:v>357.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>358.42</c:v>
+                  <c:v>377.41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>378.3</c:v>
+                  <c:v>397.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>398.44</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>418.73</c:v>
+                  <c:v>418.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>438.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>457.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>478.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>498.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,46 +965,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>340</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>380</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>420</c:v>
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,43 +1022,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>180.5326651154466</c:v>
+                  <c:v>200.60788958078581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.4488992303562</c:v>
+                  <c:v>220.40072151585818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.6334347592626</c:v>
+                  <c:v>240.15364854783564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239.31913370323969</c:v>
+                  <c:v>259.73697974165981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>259.48594952568465</c:v>
+                  <c:v>279.73931241798044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280.40451047073566</c:v>
+                  <c:v>300.01100319019162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.30069804904247</c:v>
+                  <c:v>319.53447702937342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>319.82602470019685</c:v>
+                  <c:v>339.70640554384732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>339.802398424915</c:v>
+                  <c:v>359.9481676387374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>359.93914444245576</c:v>
+                  <c:v>379.441712800598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>379.86540182566677</c:v>
+                  <c:v>399.77326092745159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.05226418471455</c:v>
+                  <c:v>419.98509434502046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>420.38947556828356</c:v>
+                  <c:v>440.27673756877908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>459.77028273063968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480.2614504698729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500.65285595136885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,8 +1503,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.76115485564304464"/>
-                  <c:y val="-0.64679024496937887"/>
+                  <c:x val="0.77165354330708646"/>
+                  <c:y val="-0.17171296296296296"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1509,96 +1539,114 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calibration_Bond!$B$3:$B$15</c:f>
+              <c:f>Calibration_Bond!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>320</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>340</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>360</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>380</c:v>
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calibration_Bond!$C$3:$C$15</c:f>
+              <c:f>Calibration_Bond!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>137.57</c:v>
+                  <c:v>198.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.96</c:v>
+                  <c:v>217.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.37</c:v>
+                  <c:v>237.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196.32</c:v>
+                  <c:v>257.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218.01</c:v>
+                  <c:v>277.47000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>238.75</c:v>
+                  <c:v>297.79000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257.33999999999997</c:v>
+                  <c:v>317.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277.83</c:v>
+                  <c:v>337.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>297.57</c:v>
+                  <c:v>357.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>315.35000000000002</c:v>
+                  <c:v>377.41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>334.95</c:v>
+                  <c:v>397.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>356.25</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>375.58</c:v>
+                  <c:v>418.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>438.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>457.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>478.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>498.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,7 +1654,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F17B-4621-AF9F-9508906A9882}"/>
+              <c16:uniqueId val="{00000001-E5E9-4B0A-AF46-229583FED955}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2049,7 +2097,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.73232323232323238"/>
-                  <c:y val="-0.65604950422863806"/>
+                  <c:y val="-0.65141987459900841"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2084,96 +2132,114 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Calibration_Bond!$B$3:$B$15</c:f>
+              <c:f>Calibration_Bond!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>320</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>340</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>360</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>380</c:v>
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calibration_Bond!$D$3:$D$15</c:f>
+              <c:f>Calibration_Bond!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>139.67070346692077</c:v>
+                  <c:v>200.60788958078581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.22118932334661</c:v>
+                  <c:v>220.40072151585818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179.80011744761947</c:v>
+                  <c:v>240.15364854783564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.90696154144462</c:v>
+                  <c:v>259.73697974165981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.7764838841922</c:v>
+                  <c:v>279.73931241798044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>241.68814333041561</c:v>
+                  <c:v>300.01100319019162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260.43200780029468</c:v>
+                  <c:v>319.53447702937342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281.09159806322225</c:v>
+                  <c:v>339.70640554384732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.99498077626231</c:v>
+                  <c:v>359.9481676387374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>318.9221410922629</c:v>
+                  <c:v>379.441712800598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>338.68436506265721</c:v>
+                  <c:v>399.77326092745159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>360.16065947946328</c:v>
+                  <c:v>419.98509434502046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>379.65064873189812</c:v>
+                  <c:v>440.27673756877908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>459.77028273063968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480.2614504698729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500.65285595136885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2247,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8AC-49D9-81C5-EFF8CDA2EBA2}"/>
+              <c16:uniqueId val="{00000002-2746-4018-A2B9-1916679673DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6953,7 +7019,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF39F8A-DD92-4EAA-98B0-F83E2E6C0372}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128AAF65-3E66-4E17-8A26-3CB80C07DBCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6991,7 +7057,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BA0558-BD64-40AA-879F-EFC262BFA6F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83E036D-7779-4176-8F36-1177CACFBA5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7443,8 +7509,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
-        <v>-0.68357142857144026</v>
+        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
+        <v>-2.935955882352971</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7452,22 +7518,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4">
-        <v>179.43</v>
+        <v>198.15</v>
       </c>
       <c r="D3" s="4">
         <f>(C3-$G$2)/$G$3</f>
-        <v>180.5326651154466</v>
+        <v>200.60788958078581</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
-        <v>0.99767857142857141</v>
+        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
+        <v>1.0023830882352942</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -7475,14 +7541,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C4" s="4">
-        <v>199.3</v>
+        <v>217.99</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
-        <v>200.4488992303562</v>
+        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
+        <v>220.40072151585818</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -7492,14 +7558,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4">
-        <v>218.44</v>
+        <v>237.79</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>219.6334347592626</v>
+        <v>240.15364854783564</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
@@ -7509,14 +7575,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C6" s="4">
-        <v>238.08</v>
+        <v>257.42</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>239.31913370323969</v>
+        <v>259.73697974165981</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -7526,148 +7592,167 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C7" s="4">
-        <v>258.2</v>
+        <v>277.47000000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>259.48594952568465</v>
+        <v>279.73931241798044</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4">
-        <v>279.07</v>
+        <v>297.79000000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>280.40451047073566</v>
+        <v>300.01100319019162</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C9" s="4">
-        <v>298.92</v>
+        <v>317.36</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>300.30069804904247</v>
+        <v>319.53447702937342</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C10" s="4">
-        <v>318.39999999999998</v>
+        <v>337.58</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>319.82602470019685</v>
+        <v>339.70640554384732</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C11" s="4">
-        <v>338.33</v>
+        <v>357.87</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>339.802398424915</v>
+        <v>359.9481676387374</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C12" s="4">
-        <v>358.42</v>
+        <v>377.41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>359.93914444245576</v>
+        <v>379.441712800598</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C13" s="4">
-        <v>378.3</v>
+        <v>397.79</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>379.86540182566677</v>
+        <v>399.77326092745159</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C14" s="4">
-        <v>398.44</v>
+        <v>418.05</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>400.05226418471455</v>
+        <v>419.98509434502046</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="2">
-        <v>420</v>
-      </c>
-      <c r="C15" s="2">
-        <v>418.73</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" s="1">
+        <v>440</v>
+      </c>
+      <c r="C15" s="4">
+        <v>438.39</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>420.38947556828356</v>
+        <v>440.27673756877908</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="1">
+        <v>460</v>
+      </c>
+      <c r="C16" s="4">
+        <v>457.93</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>459.77028273063968</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="1">
+        <v>480</v>
+      </c>
+      <c r="C17" s="4">
+        <v>478.47</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>480.2614504698729</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="1">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="2">
+        <v>500</v>
+      </c>
+      <c r="C18" s="5">
+        <v>498.91</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>500.65285595136885</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -7913,7 +7998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449DDF70-ED67-4D2E-86DD-CDB8400C408B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE428C7-4195-4978-9361-C36AD7974764}">
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7945,8 +8030,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>INTERCEPT($C$3:$C$15,$B$3:$B$15)</f>
-        <v>-0.95417582417582025</v>
+        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
+        <v>-2.935955882352971</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7954,22 +8039,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4">
-        <v>137.57</v>
+        <v>198.15</v>
       </c>
       <c r="D3" s="4">
         <f>(C3-$G$2)/$G$3</f>
-        <v>139.67070346692077</v>
+        <v>200.60788958078581</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SLOPE($C$3:$C$15,$B$3:$B$15)</f>
-        <v>0.99179120879120874</v>
+        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
+        <v>1.0023830882352942</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -7977,14 +8062,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C4" s="4">
-        <v>156.96</v>
+        <v>217.99</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D15" si="0">(C4-$G$2)/$G$3</f>
-        <v>159.22118932334661</v>
+        <f t="shared" ref="D4:D18" si="0">(C4-$G$2)/$G$3</f>
+        <v>220.40072151585818</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -7994,14 +8079,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4">
-        <v>177.37</v>
+        <v>237.79</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>179.80011744761947</v>
+        <v>240.15364854783564</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
@@ -8011,14 +8096,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C6" s="4">
-        <v>196.32</v>
+        <v>257.42</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>198.90696154144462</v>
+        <v>259.73697974165981</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -8028,148 +8113,167 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C7" s="4">
-        <v>218.01</v>
+        <v>277.47000000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>220.7764838841922</v>
+        <v>279.73931241798044</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4">
-        <v>238.75</v>
+        <v>297.79000000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>241.68814333041561</v>
+        <v>300.01100319019162</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C9" s="4">
-        <v>257.33999999999997</v>
+        <v>317.36</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>260.43200780029468</v>
+        <v>319.53447702937342</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="C10" s="4">
-        <v>277.83</v>
+        <v>337.58</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>281.09159806322225</v>
+        <v>339.70640554384732</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C11" s="4">
-        <v>297.57</v>
+        <v>357.87</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>300.99498077626231</v>
+        <v>359.9481676387374</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="C12" s="4">
-        <v>315.35000000000002</v>
+        <v>377.41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>318.9221410922629</v>
+        <v>379.441712800598</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="C13" s="4">
-        <v>334.95</v>
+        <v>397.79</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>338.68436506265721</v>
+        <v>399.77326092745159</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="C14" s="4">
-        <v>356.25</v>
+        <v>418.05</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>360.16065947946328</v>
+        <v>419.98509434502046</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="2">
-        <v>380</v>
-      </c>
-      <c r="C15" s="2">
-        <v>375.58</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" s="1">
+        <v>440</v>
+      </c>
+      <c r="C15" s="4">
+        <v>438.39</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>379.65064873189812</v>
+        <v>440.27673756877908</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="1">
+        <v>460</v>
+      </c>
+      <c r="C16" s="4">
+        <v>457.93</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>459.77028273063968</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="1">
+        <v>480</v>
+      </c>
+      <c r="C17" s="4">
+        <v>478.47</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>480.2614504698729</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="1">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="2">
+        <v>500</v>
+      </c>
+      <c r="C18" s="5">
+        <v>498.91</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>500.65285595136885</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
